--- a/Utah/SS_PublicSupplyWaterUse/UT_SS_PublicSupplyWaterUse Schema Mapping to WaDE.xlsx
+++ b/Utah/SS_PublicSupplyWaterUse/UT_SS_PublicSupplyWaterUse Schema Mapping to WaDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\SS_PublicSupplyWaterUse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5FB634-DE04-45B6-A0E2-F68E1A616BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87AF35E-B28B-46B4-A3E4-2012AFD27C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="13" r:id="rId1"/>
@@ -1030,9 +1030,6 @@
     <t>Water Supplier" ben use = Public Supply in WaDE.</t>
   </si>
   <si>
-    <t>Unspecified for POU</t>
-  </si>
-  <si>
     <t>blank for POD</t>
   </si>
   <si>
@@ -2665,6 +2662,10 @@
   </si>
   <si>
     <t>We should double check if this is a Calenderer or WaterYear?</t>
+  </si>
+  <si>
+    <t>Unspecified for POU
+Use custom list</t>
   </si>
 </sst>
 </file>
@@ -2674,7 +2675,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2806,6 +2807,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3065,7 +3072,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3448,6 +3455,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3766,7 +3776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F6A548-E851-4D4E-BE92-BC91BAA9EE3E}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3861,12 +3871,12 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="56" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="131" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3874,7 +3884,7 @@
         <v>274</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G20" s="59"/>
     </row>
@@ -3916,39 +3926,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1" t="s">
         <v>607</v>
-      </c>
-      <c r="C1" t="s">
-        <v>608</v>
       </c>
       <c r="D1" t="s">
         <v>135</v>
       </c>
       <c r="E1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F1" t="s">
         <v>609</v>
-      </c>
-      <c r="F1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" t="s">
         <v>611</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="133" t="s">
         <v>612</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="D2" t="s">
         <v>613</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F2" t="s">
         <v>614</v>
-      </c>
-      <c r="E2" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F2" t="s">
-        <v>615</v>
       </c>
       <c r="H2" t="str">
         <f>"("&amp;A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;")"&amp;","</f>
@@ -3957,22 +3967,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B3" t="s">
         <v>616</v>
       </c>
-      <c r="B3" t="s">
-        <v>617</v>
-      </c>
       <c r="C3" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D3" t="s">
         <v>613</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F3" t="s">
         <v>614</v>
-      </c>
-      <c r="E3" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F3" t="s">
-        <v>615</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="0">"("&amp;A3&amp;B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;")"&amp;","</f>
@@ -3981,22 +3991,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B4" t="s">
         <v>618</v>
       </c>
-      <c r="B4" t="s">
-        <v>619</v>
-      </c>
       <c r="C4" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D4" t="s">
         <v>613</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F4" t="s">
         <v>614</v>
-      </c>
-      <c r="E4" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F4" t="s">
-        <v>615</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -4005,22 +4015,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B5" t="s">
         <v>620</v>
       </c>
-      <c r="B5" t="s">
-        <v>621</v>
-      </c>
       <c r="C5" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D5" t="s">
         <v>613</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" t="s">
         <v>614</v>
-      </c>
-      <c r="E5" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F5" t="s">
-        <v>615</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -4029,22 +4039,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B6" t="s">
         <v>622</v>
       </c>
-      <c r="B6" t="s">
-        <v>623</v>
-      </c>
       <c r="C6" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D6" t="s">
         <v>613</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F6" t="s">
         <v>614</v>
-      </c>
-      <c r="E6" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F6" t="s">
-        <v>615</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -4053,22 +4063,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B7" t="s">
         <v>624</v>
       </c>
-      <c r="B7" t="s">
-        <v>625</v>
-      </c>
       <c r="C7" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D7" t="s">
         <v>613</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F7" t="s">
         <v>614</v>
-      </c>
-      <c r="E7" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F7" t="s">
-        <v>615</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -4077,22 +4087,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B8" t="s">
         <v>626</v>
       </c>
-      <c r="B8" t="s">
-        <v>627</v>
-      </c>
       <c r="C8" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D8" t="s">
         <v>613</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F8" t="s">
         <v>614</v>
-      </c>
-      <c r="E8" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F8" t="s">
-        <v>615</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -4101,22 +4111,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B9" t="s">
         <v>628</v>
       </c>
-      <c r="B9" t="s">
-        <v>629</v>
-      </c>
       <c r="C9" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D9" t="s">
         <v>613</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F9" t="s">
         <v>614</v>
-      </c>
-      <c r="E9" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F9" t="s">
-        <v>615</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -4125,22 +4135,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B10" t="s">
         <v>630</v>
       </c>
-      <c r="B10" t="s">
-        <v>631</v>
-      </c>
       <c r="C10" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D10" t="s">
         <v>613</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F10" t="s">
         <v>614</v>
-      </c>
-      <c r="E10" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F10" t="s">
-        <v>615</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -4149,22 +4159,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B11" t="s">
         <v>632</v>
       </c>
-      <c r="B11" t="s">
-        <v>633</v>
-      </c>
       <c r="C11" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D11" t="s">
         <v>613</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F11" t="s">
         <v>614</v>
-      </c>
-      <c r="E11" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F11" t="s">
-        <v>615</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -4173,22 +4183,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>633</v>
+      </c>
+      <c r="B12" t="s">
         <v>634</v>
       </c>
-      <c r="B12" t="s">
-        <v>635</v>
-      </c>
       <c r="C12" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D12" t="s">
         <v>613</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F12" t="s">
         <v>614</v>
-      </c>
-      <c r="E12" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F12" t="s">
-        <v>615</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -4197,22 +4207,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>635</v>
+      </c>
+      <c r="B13" t="s">
         <v>636</v>
       </c>
-      <c r="B13" t="s">
-        <v>637</v>
-      </c>
       <c r="C13" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D13" t="s">
         <v>613</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F13" t="s">
         <v>614</v>
-      </c>
-      <c r="E13" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F13" t="s">
-        <v>615</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -4221,22 +4231,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>637</v>
+      </c>
+      <c r="B14" t="s">
         <v>638</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D14" t="s">
+        <v>613</v>
+      </c>
+      <c r="E14" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F14" t="s">
         <v>639</v>
-      </c>
-      <c r="C14" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="D14" t="s">
-        <v>614</v>
-      </c>
-      <c r="E14" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F14" t="s">
-        <v>640</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -4245,22 +4255,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>640</v>
+      </c>
+      <c r="B15" t="s">
         <v>641</v>
       </c>
-      <c r="B15" t="s">
-        <v>642</v>
-      </c>
       <c r="C15" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D15" t="s">
         <v>613</v>
       </c>
-      <c r="D15" t="s">
-        <v>614</v>
-      </c>
       <c r="E15" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -4269,22 +4279,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>642</v>
+      </c>
+      <c r="B16" t="s">
         <v>643</v>
       </c>
-      <c r="B16" t="s">
-        <v>644</v>
-      </c>
       <c r="C16" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D16" t="s">
         <v>613</v>
       </c>
-      <c r="D16" t="s">
-        <v>614</v>
-      </c>
       <c r="E16" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -4293,22 +4303,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>644</v>
+      </c>
+      <c r="B17" t="s">
         <v>645</v>
       </c>
-      <c r="B17" t="s">
-        <v>646</v>
-      </c>
       <c r="C17" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D17" t="s">
         <v>613</v>
       </c>
-      <c r="D17" t="s">
-        <v>614</v>
-      </c>
       <c r="E17" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -4317,22 +4327,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>646</v>
+      </c>
+      <c r="B18" t="s">
         <v>647</v>
       </c>
-      <c r="B18" t="s">
-        <v>648</v>
-      </c>
       <c r="C18" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D18" t="s">
         <v>613</v>
       </c>
-      <c r="D18" t="s">
-        <v>614</v>
-      </c>
       <c r="E18" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -4341,22 +4351,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>648</v>
+      </c>
+      <c r="B19" t="s">
         <v>649</v>
       </c>
-      <c r="B19" t="s">
-        <v>650</v>
-      </c>
       <c r="C19" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D19" t="s">
         <v>613</v>
       </c>
-      <c r="D19" t="s">
-        <v>614</v>
-      </c>
       <c r="E19" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -4365,22 +4375,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>650</v>
+      </c>
+      <c r="B20" t="s">
         <v>651</v>
       </c>
-      <c r="B20" t="s">
-        <v>652</v>
-      </c>
       <c r="C20" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D20" t="s">
         <v>613</v>
       </c>
-      <c r="D20" t="s">
-        <v>614</v>
-      </c>
       <c r="E20" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -4389,22 +4399,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>652</v>
+      </c>
+      <c r="B21" t="s">
         <v>653</v>
       </c>
-      <c r="B21" t="s">
-        <v>654</v>
-      </c>
       <c r="C21" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D21" t="s">
         <v>613</v>
       </c>
-      <c r="D21" t="s">
-        <v>614</v>
-      </c>
       <c r="E21" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -4413,22 +4423,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>654</v>
+      </c>
+      <c r="B22" t="s">
         <v>655</v>
       </c>
-      <c r="B22" t="s">
-        <v>656</v>
-      </c>
       <c r="C22" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D22" t="s">
         <v>613</v>
       </c>
-      <c r="D22" t="s">
-        <v>614</v>
-      </c>
       <c r="E22" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -4437,22 +4447,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>656</v>
+      </c>
+      <c r="B23" t="s">
         <v>657</v>
       </c>
-      <c r="B23" t="s">
-        <v>658</v>
-      </c>
       <c r="C23" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D23" t="s">
         <v>613</v>
       </c>
-      <c r="D23" t="s">
-        <v>614</v>
-      </c>
       <c r="E23" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -4461,22 +4471,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>658</v>
+      </c>
+      <c r="B24" t="s">
         <v>659</v>
       </c>
-      <c r="B24" t="s">
-        <v>660</v>
-      </c>
       <c r="C24" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D24" t="s">
         <v>613</v>
       </c>
-      <c r="D24" t="s">
-        <v>614</v>
-      </c>
       <c r="E24" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -4485,22 +4495,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>660</v>
+      </c>
+      <c r="B25" t="s">
         <v>661</v>
       </c>
-      <c r="B25" t="s">
-        <v>662</v>
-      </c>
       <c r="C25" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D25" t="s">
         <v>613</v>
       </c>
-      <c r="D25" t="s">
-        <v>614</v>
-      </c>
       <c r="E25" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -4509,22 +4519,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>662</v>
+      </c>
+      <c r="B26" t="s">
         <v>663</v>
       </c>
-      <c r="B26" t="s">
-        <v>664</v>
-      </c>
       <c r="C26" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D26" t="s">
         <v>613</v>
       </c>
-      <c r="D26" t="s">
-        <v>614</v>
-      </c>
       <c r="E26" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -4533,22 +4543,22 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>664</v>
+      </c>
+      <c r="B27" t="s">
         <v>665</v>
       </c>
-      <c r="B27" t="s">
-        <v>666</v>
-      </c>
       <c r="C27" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D27" t="s">
         <v>613</v>
       </c>
-      <c r="D27" t="s">
-        <v>614</v>
-      </c>
       <c r="E27" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F27" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -4557,22 +4567,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>666</v>
+      </c>
+      <c r="B28" t="s">
         <v>667</v>
       </c>
-      <c r="B28" t="s">
-        <v>668</v>
-      </c>
       <c r="C28" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D28" t="s">
         <v>613</v>
       </c>
-      <c r="D28" t="s">
-        <v>614</v>
-      </c>
       <c r="E28" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -4581,22 +4591,22 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>668</v>
+      </c>
+      <c r="B29" t="s">
         <v>669</v>
       </c>
-      <c r="B29" t="s">
-        <v>670</v>
-      </c>
       <c r="C29" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D29" t="s">
         <v>613</v>
       </c>
-      <c r="D29" t="s">
-        <v>614</v>
-      </c>
       <c r="E29" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F29" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -4605,22 +4615,22 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>670</v>
+      </c>
+      <c r="B30" t="s">
         <v>671</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D30" t="s">
+        <v>613</v>
+      </c>
+      <c r="E30" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F30" t="s">
         <v>672</v>
-      </c>
-      <c r="C30" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="D30" t="s">
-        <v>614</v>
-      </c>
-      <c r="E30" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F30" t="s">
-        <v>673</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -4629,22 +4639,22 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>673</v>
+      </c>
+      <c r="B31" t="s">
         <v>674</v>
       </c>
-      <c r="B31" t="s">
-        <v>675</v>
-      </c>
       <c r="C31" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D31" t="s">
         <v>613</v>
       </c>
-      <c r="D31" t="s">
-        <v>614</v>
-      </c>
       <c r="E31" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -4653,22 +4663,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>675</v>
+      </c>
+      <c r="B32" t="s">
         <v>676</v>
       </c>
-      <c r="B32" t="s">
-        <v>677</v>
-      </c>
       <c r="C32" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D32" t="s">
         <v>613</v>
       </c>
-      <c r="D32" t="s">
-        <v>614</v>
-      </c>
       <c r="E32" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -4677,22 +4687,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>677</v>
+      </c>
+      <c r="B33" t="s">
         <v>678</v>
       </c>
-      <c r="B33" t="s">
-        <v>679</v>
-      </c>
       <c r="C33" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D33" t="s">
         <v>613</v>
       </c>
-      <c r="D33" t="s">
-        <v>614</v>
-      </c>
       <c r="E33" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F33" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -4701,22 +4711,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>679</v>
+      </c>
+      <c r="B34" t="s">
         <v>680</v>
       </c>
-      <c r="B34" t="s">
-        <v>681</v>
-      </c>
       <c r="C34" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D34" t="s">
         <v>613</v>
       </c>
-      <c r="D34" t="s">
-        <v>614</v>
-      </c>
       <c r="E34" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -4725,22 +4735,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>681</v>
+      </c>
+      <c r="B35" t="s">
         <v>682</v>
       </c>
-      <c r="B35" t="s">
-        <v>683</v>
-      </c>
       <c r="C35" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D35" t="s">
         <v>613</v>
       </c>
-      <c r="D35" t="s">
-        <v>614</v>
-      </c>
       <c r="E35" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -4749,22 +4759,22 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>683</v>
+      </c>
+      <c r="B36" t="s">
         <v>684</v>
       </c>
-      <c r="B36" t="s">
-        <v>685</v>
-      </c>
       <c r="C36" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D36" t="s">
         <v>613</v>
       </c>
-      <c r="D36" t="s">
-        <v>614</v>
-      </c>
       <c r="E36" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F36" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -4773,22 +4783,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>685</v>
+      </c>
+      <c r="B37" t="s">
         <v>686</v>
       </c>
-      <c r="B37" t="s">
-        <v>687</v>
-      </c>
       <c r="C37" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D37" t="s">
         <v>613</v>
       </c>
-      <c r="D37" t="s">
-        <v>614</v>
-      </c>
       <c r="E37" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -4797,22 +4807,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>687</v>
+      </c>
+      <c r="B38" t="s">
         <v>688</v>
       </c>
-      <c r="B38" t="s">
-        <v>689</v>
-      </c>
       <c r="C38" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D38" t="s">
         <v>613</v>
       </c>
-      <c r="D38" t="s">
-        <v>614</v>
-      </c>
       <c r="E38" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -4821,22 +4831,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>689</v>
+      </c>
+      <c r="B39" t="s">
         <v>690</v>
       </c>
-      <c r="B39" t="s">
-        <v>691</v>
-      </c>
       <c r="C39" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D39" t="s">
         <v>613</v>
       </c>
-      <c r="D39" t="s">
-        <v>614</v>
-      </c>
       <c r="E39" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F39" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
@@ -4845,22 +4855,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>691</v>
+      </c>
+      <c r="B40" t="s">
         <v>692</v>
       </c>
-      <c r="B40" t="s">
-        <v>693</v>
-      </c>
       <c r="C40" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D40" t="s">
         <v>613</v>
       </c>
-      <c r="D40" t="s">
-        <v>614</v>
-      </c>
       <c r="E40" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
@@ -4869,22 +4879,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>693</v>
+      </c>
+      <c r="B41" t="s">
         <v>694</v>
       </c>
-      <c r="B41" t="s">
-        <v>695</v>
-      </c>
       <c r="C41" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D41" t="s">
         <v>613</v>
       </c>
-      <c r="D41" t="s">
-        <v>614</v>
-      </c>
       <c r="E41" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F41" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
@@ -4893,22 +4903,22 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>695</v>
+      </c>
+      <c r="B42" t="s">
         <v>696</v>
       </c>
-      <c r="B42" t="s">
-        <v>697</v>
-      </c>
       <c r="C42" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D42" t="s">
         <v>613</v>
       </c>
-      <c r="D42" t="s">
-        <v>614</v>
-      </c>
       <c r="E42" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
@@ -4917,22 +4927,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>697</v>
+      </c>
+      <c r="B43" t="s">
         <v>698</v>
       </c>
-      <c r="B43" t="s">
-        <v>699</v>
-      </c>
       <c r="C43" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D43" t="s">
         <v>613</v>
       </c>
-      <c r="D43" t="s">
-        <v>614</v>
-      </c>
       <c r="E43" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
@@ -4941,22 +4951,22 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>699</v>
+      </c>
+      <c r="B44" t="s">
         <v>700</v>
       </c>
-      <c r="B44" t="s">
-        <v>701</v>
-      </c>
       <c r="C44" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D44" t="s">
         <v>613</v>
       </c>
-      <c r="D44" t="s">
-        <v>614</v>
-      </c>
       <c r="E44" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
@@ -4965,22 +4975,22 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>701</v>
+      </c>
+      <c r="B45" t="s">
         <v>702</v>
       </c>
-      <c r="B45" t="s">
-        <v>703</v>
-      </c>
       <c r="C45" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D45" t="s">
         <v>613</v>
       </c>
-      <c r="D45" t="s">
-        <v>614</v>
-      </c>
       <c r="E45" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F45" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
@@ -4989,22 +4999,22 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>703</v>
+      </c>
+      <c r="B46" t="s">
         <v>704</v>
       </c>
-      <c r="B46" t="s">
-        <v>705</v>
-      </c>
       <c r="C46" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D46" t="s">
         <v>613</v>
       </c>
-      <c r="D46" t="s">
-        <v>614</v>
-      </c>
       <c r="E46" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F46" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
@@ -5013,22 +5023,22 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>705</v>
+      </c>
+      <c r="B47" t="s">
         <v>706</v>
       </c>
-      <c r="B47" t="s">
-        <v>707</v>
-      </c>
       <c r="C47" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D47" t="s">
         <v>613</v>
       </c>
-      <c r="D47" t="s">
-        <v>614</v>
-      </c>
       <c r="E47" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F47" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
@@ -5037,22 +5047,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>707</v>
+      </c>
+      <c r="B48" t="s">
         <v>708</v>
       </c>
-      <c r="B48" t="s">
-        <v>709</v>
-      </c>
       <c r="C48" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D48" t="s">
         <v>613</v>
       </c>
-      <c r="D48" t="s">
-        <v>614</v>
-      </c>
       <c r="E48" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F48" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
@@ -5061,22 +5071,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>709</v>
+      </c>
+      <c r="B49" t="s">
         <v>710</v>
       </c>
-      <c r="B49" t="s">
-        <v>711</v>
-      </c>
       <c r="C49" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D49" t="s">
         <v>613</v>
       </c>
-      <c r="D49" t="s">
-        <v>614</v>
-      </c>
       <c r="E49" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F49" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
@@ -5085,22 +5095,22 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>711</v>
+      </c>
+      <c r="B50" t="s">
         <v>712</v>
       </c>
-      <c r="B50" t="s">
-        <v>713</v>
-      </c>
       <c r="C50" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D50" t="s">
         <v>613</v>
       </c>
-      <c r="D50" t="s">
-        <v>614</v>
-      </c>
       <c r="E50" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F50" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -5109,22 +5119,22 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>713</v>
+      </c>
+      <c r="B51" t="s">
         <v>714</v>
       </c>
-      <c r="B51" t="s">
-        <v>715</v>
-      </c>
       <c r="C51" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D51" t="s">
         <v>613</v>
       </c>
-      <c r="D51" t="s">
-        <v>614</v>
-      </c>
       <c r="E51" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F51" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
@@ -5133,22 +5143,22 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>715</v>
+      </c>
+      <c r="B52" t="s">
         <v>716</v>
       </c>
-      <c r="B52" t="s">
-        <v>717</v>
-      </c>
       <c r="C52" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D52" t="s">
         <v>613</v>
       </c>
-      <c r="D52" t="s">
-        <v>614</v>
-      </c>
       <c r="E52" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F52" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
@@ -5157,22 +5167,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>717</v>
+      </c>
+      <c r="B53" t="s">
         <v>718</v>
       </c>
-      <c r="B53" t="s">
-        <v>719</v>
-      </c>
       <c r="C53" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D53" t="s">
         <v>613</v>
       </c>
-      <c r="D53" t="s">
-        <v>614</v>
-      </c>
       <c r="E53" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
@@ -5181,22 +5191,22 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>719</v>
+      </c>
+      <c r="B54" t="s">
         <v>720</v>
       </c>
-      <c r="B54" t="s">
-        <v>721</v>
-      </c>
       <c r="C54" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D54" t="s">
         <v>613</v>
       </c>
-      <c r="D54" t="s">
-        <v>614</v>
-      </c>
       <c r="E54" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F54" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
@@ -5205,22 +5215,22 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>721</v>
+      </c>
+      <c r="B55" t="s">
         <v>722</v>
       </c>
-      <c r="B55" t="s">
-        <v>723</v>
-      </c>
       <c r="C55" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D55" t="s">
         <v>613</v>
       </c>
-      <c r="D55" t="s">
-        <v>614</v>
-      </c>
       <c r="E55" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F55" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
@@ -5229,22 +5239,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>723</v>
+      </c>
+      <c r="B56" t="s">
         <v>724</v>
       </c>
-      <c r="B56" t="s">
-        <v>725</v>
-      </c>
       <c r="C56" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D56" t="s">
         <v>613</v>
       </c>
-      <c r="D56" t="s">
-        <v>614</v>
-      </c>
       <c r="E56" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F56" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
@@ -5253,22 +5263,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>725</v>
+      </c>
+      <c r="B57" t="s">
         <v>726</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D57" t="s">
+        <v>613</v>
+      </c>
+      <c r="E57" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F57" t="s">
         <v>727</v>
-      </c>
-      <c r="C57" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="D57" t="s">
-        <v>614</v>
-      </c>
-      <c r="E57" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F57" t="s">
-        <v>728</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
@@ -5277,22 +5287,22 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>728</v>
+      </c>
+      <c r="B58" t="s">
         <v>729</v>
       </c>
-      <c r="B58" t="s">
-        <v>730</v>
-      </c>
       <c r="C58" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D58" t="s">
         <v>613</v>
       </c>
-      <c r="D58" t="s">
-        <v>614</v>
-      </c>
       <c r="E58" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F58" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
@@ -5301,22 +5311,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>730</v>
+      </c>
+      <c r="B59" t="s">
         <v>731</v>
       </c>
-      <c r="B59" t="s">
-        <v>732</v>
-      </c>
       <c r="C59" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D59" t="s">
         <v>613</v>
       </c>
-      <c r="D59" t="s">
-        <v>614</v>
-      </c>
       <c r="E59" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F59" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
@@ -5325,22 +5335,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>732</v>
+      </c>
+      <c r="B60" t="s">
         <v>733</v>
       </c>
-      <c r="B60" t="s">
-        <v>734</v>
-      </c>
       <c r="C60" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D60" t="s">
         <v>613</v>
       </c>
-      <c r="D60" t="s">
-        <v>614</v>
-      </c>
       <c r="E60" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F60" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
@@ -5349,22 +5359,22 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>734</v>
+      </c>
+      <c r="B61" t="s">
         <v>735</v>
       </c>
-      <c r="B61" t="s">
-        <v>736</v>
-      </c>
       <c r="C61" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D61" t="s">
         <v>613</v>
       </c>
-      <c r="D61" t="s">
-        <v>614</v>
-      </c>
       <c r="E61" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F61" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
@@ -5373,22 +5383,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>736</v>
+      </c>
+      <c r="B62" t="s">
         <v>737</v>
       </c>
-      <c r="B62" t="s">
-        <v>738</v>
-      </c>
       <c r="C62" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D62" t="s">
         <v>613</v>
       </c>
-      <c r="D62" t="s">
-        <v>614</v>
-      </c>
       <c r="E62" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F62" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
@@ -5397,22 +5407,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>738</v>
+      </c>
+      <c r="B63" t="s">
         <v>739</v>
       </c>
-      <c r="B63" t="s">
-        <v>740</v>
-      </c>
       <c r="C63" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D63" t="s">
         <v>613</v>
       </c>
-      <c r="D63" t="s">
-        <v>614</v>
-      </c>
       <c r="E63" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F63" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
@@ -5421,22 +5431,22 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>740</v>
+      </c>
+      <c r="B64" t="s">
         <v>741</v>
       </c>
-      <c r="B64" t="s">
-        <v>742</v>
-      </c>
       <c r="C64" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D64" t="s">
         <v>613</v>
       </c>
-      <c r="D64" t="s">
-        <v>614</v>
-      </c>
       <c r="E64" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F64" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
@@ -5445,22 +5455,22 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>742</v>
+      </c>
+      <c r="B65" t="s">
         <v>743</v>
       </c>
-      <c r="B65" t="s">
-        <v>744</v>
-      </c>
       <c r="C65" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D65" t="s">
         <v>613</v>
       </c>
-      <c r="D65" t="s">
-        <v>614</v>
-      </c>
       <c r="E65" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F65" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
@@ -5469,22 +5479,22 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>744</v>
+      </c>
+      <c r="B66" t="s">
         <v>745</v>
       </c>
-      <c r="B66" t="s">
-        <v>746</v>
-      </c>
       <c r="C66" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D66" t="s">
         <v>613</v>
       </c>
-      <c r="D66" t="s">
-        <v>614</v>
-      </c>
       <c r="E66" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F66" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
@@ -5493,22 +5503,22 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>746</v>
+      </c>
+      <c r="B67" t="s">
         <v>747</v>
       </c>
-      <c r="B67" t="s">
-        <v>748</v>
-      </c>
       <c r="C67" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D67" t="s">
         <v>613</v>
       </c>
-      <c r="D67" t="s">
-        <v>614</v>
-      </c>
       <c r="E67" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F67" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H110" si="1">"("&amp;A67&amp;B67&amp;C67&amp;D67&amp;E67&amp;F67&amp;")"&amp;","</f>
@@ -5517,22 +5527,22 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>748</v>
+      </c>
+      <c r="B68" t="s">
         <v>749</v>
       </c>
-      <c r="B68" t="s">
-        <v>750</v>
-      </c>
       <c r="C68" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D68" t="s">
         <v>613</v>
       </c>
-      <c r="D68" t="s">
-        <v>614</v>
-      </c>
       <c r="E68" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F68" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
@@ -5541,22 +5551,22 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>750</v>
+      </c>
+      <c r="B69" t="s">
         <v>751</v>
       </c>
-      <c r="B69" t="s">
-        <v>752</v>
-      </c>
       <c r="C69" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D69" t="s">
         <v>613</v>
       </c>
-      <c r="D69" t="s">
-        <v>614</v>
-      </c>
       <c r="E69" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F69" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
@@ -5565,22 +5575,22 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>752</v>
+      </c>
+      <c r="B70" t="s">
         <v>753</v>
       </c>
-      <c r="B70" t="s">
-        <v>754</v>
-      </c>
       <c r="C70" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D70" t="s">
         <v>613</v>
       </c>
-      <c r="D70" t="s">
-        <v>614</v>
-      </c>
       <c r="E70" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F70" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
@@ -5589,22 +5599,22 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>754</v>
+      </c>
+      <c r="B71" t="s">
         <v>755</v>
       </c>
-      <c r="B71" t="s">
-        <v>756</v>
-      </c>
       <c r="C71" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D71" t="s">
         <v>613</v>
       </c>
-      <c r="D71" t="s">
-        <v>614</v>
-      </c>
       <c r="E71" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F71" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
@@ -5613,22 +5623,22 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>756</v>
+      </c>
+      <c r="B72" t="s">
         <v>757</v>
       </c>
-      <c r="B72" t="s">
-        <v>758</v>
-      </c>
       <c r="C72" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D72" t="s">
         <v>613</v>
       </c>
-      <c r="D72" t="s">
-        <v>614</v>
-      </c>
       <c r="E72" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F72" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
@@ -5637,22 +5647,22 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>758</v>
+      </c>
+      <c r="B73" t="s">
         <v>759</v>
       </c>
-      <c r="B73" t="s">
-        <v>760</v>
-      </c>
       <c r="C73" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D73" t="s">
         <v>613</v>
       </c>
-      <c r="D73" t="s">
-        <v>614</v>
-      </c>
       <c r="E73" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
@@ -5661,22 +5671,22 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>760</v>
+      </c>
+      <c r="B74" t="s">
         <v>761</v>
       </c>
-      <c r="B74" t="s">
-        <v>762</v>
-      </c>
       <c r="C74" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D74" t="s">
         <v>613</v>
       </c>
-      <c r="D74" t="s">
-        <v>614</v>
-      </c>
       <c r="E74" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F74" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
@@ -5685,22 +5695,22 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>762</v>
+      </c>
+      <c r="B75" t="s">
         <v>763</v>
       </c>
-      <c r="B75" t="s">
-        <v>764</v>
-      </c>
       <c r="C75" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D75" t="s">
         <v>613</v>
       </c>
-      <c r="D75" t="s">
-        <v>614</v>
-      </c>
       <c r="E75" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F75" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
@@ -5709,22 +5719,22 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>764</v>
+      </c>
+      <c r="B76" t="s">
         <v>765</v>
       </c>
-      <c r="B76" t="s">
-        <v>766</v>
-      </c>
       <c r="C76" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D76" t="s">
         <v>613</v>
       </c>
-      <c r="D76" t="s">
-        <v>614</v>
-      </c>
       <c r="E76" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F76" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
@@ -5733,22 +5743,22 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>766</v>
+      </c>
+      <c r="B77" t="s">
         <v>767</v>
       </c>
-      <c r="B77" t="s">
-        <v>768</v>
-      </c>
       <c r="C77" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D77" t="s">
         <v>613</v>
       </c>
-      <c r="D77" t="s">
-        <v>614</v>
-      </c>
       <c r="E77" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F77" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
@@ -5757,22 +5767,22 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>768</v>
+      </c>
+      <c r="B78" t="s">
         <v>769</v>
       </c>
-      <c r="B78" t="s">
-        <v>770</v>
-      </c>
       <c r="C78" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D78" t="s">
         <v>613</v>
       </c>
-      <c r="D78" t="s">
-        <v>614</v>
-      </c>
       <c r="E78" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F78" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
@@ -5781,22 +5791,22 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>770</v>
+      </c>
+      <c r="B79" t="s">
         <v>771</v>
       </c>
-      <c r="B79" t="s">
-        <v>772</v>
-      </c>
       <c r="C79" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D79" t="s">
         <v>613</v>
       </c>
-      <c r="D79" t="s">
-        <v>614</v>
-      </c>
       <c r="E79" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F79" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
@@ -5805,22 +5815,22 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>772</v>
+      </c>
+      <c r="B80" t="s">
         <v>773</v>
       </c>
-      <c r="B80" t="s">
-        <v>774</v>
-      </c>
       <c r="C80" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D80" t="s">
         <v>613</v>
       </c>
-      <c r="D80" t="s">
-        <v>614</v>
-      </c>
       <c r="E80" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F80" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
@@ -5829,22 +5839,22 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>774</v>
+      </c>
+      <c r="B81" t="s">
         <v>775</v>
       </c>
-      <c r="B81" t="s">
-        <v>776</v>
-      </c>
       <c r="C81" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D81" t="s">
         <v>613</v>
       </c>
-      <c r="D81" t="s">
-        <v>614</v>
-      </c>
       <c r="E81" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F81" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
@@ -5853,22 +5863,22 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>776</v>
+      </c>
+      <c r="B82" t="s">
         <v>777</v>
       </c>
-      <c r="B82" t="s">
-        <v>778</v>
-      </c>
       <c r="C82" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D82" t="s">
         <v>613</v>
       </c>
-      <c r="D82" t="s">
-        <v>614</v>
-      </c>
       <c r="E82" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F82" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
@@ -5877,22 +5887,22 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>778</v>
+      </c>
+      <c r="B83" t="s">
         <v>779</v>
       </c>
-      <c r="B83" t="s">
-        <v>780</v>
-      </c>
       <c r="C83" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D83" t="s">
         <v>613</v>
       </c>
-      <c r="D83" t="s">
-        <v>614</v>
-      </c>
       <c r="E83" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F83" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
@@ -5901,22 +5911,22 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>780</v>
+      </c>
+      <c r="B84" t="s">
         <v>781</v>
       </c>
-      <c r="B84" t="s">
-        <v>782</v>
-      </c>
       <c r="C84" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D84" t="s">
         <v>613</v>
       </c>
-      <c r="D84" t="s">
-        <v>614</v>
-      </c>
       <c r="E84" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F84" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
@@ -5925,22 +5935,22 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>782</v>
+      </c>
+      <c r="B85" t="s">
         <v>783</v>
       </c>
-      <c r="B85" t="s">
-        <v>784</v>
-      </c>
       <c r="C85" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D85" t="s">
         <v>613</v>
       </c>
-      <c r="D85" t="s">
-        <v>614</v>
-      </c>
       <c r="E85" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F85" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
@@ -5949,22 +5959,22 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>784</v>
+      </c>
+      <c r="B86" t="s">
         <v>785</v>
       </c>
-      <c r="B86" t="s">
-        <v>786</v>
-      </c>
       <c r="C86" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D86" t="s">
         <v>613</v>
       </c>
-      <c r="D86" t="s">
-        <v>614</v>
-      </c>
       <c r="E86" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F86" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
@@ -5973,22 +5983,22 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>786</v>
+      </c>
+      <c r="B87" t="s">
         <v>787</v>
       </c>
-      <c r="B87" t="s">
-        <v>788</v>
-      </c>
       <c r="C87" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D87" t="s">
         <v>613</v>
       </c>
-      <c r="D87" t="s">
-        <v>614</v>
-      </c>
       <c r="E87" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F87" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="1"/>
@@ -5997,22 +6007,22 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>788</v>
+      </c>
+      <c r="B88" t="s">
         <v>789</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D88" t="s">
+        <v>613</v>
+      </c>
+      <c r="E88" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F88" t="s">
         <v>790</v>
-      </c>
-      <c r="C88" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="D88" t="s">
-        <v>614</v>
-      </c>
-      <c r="E88" s="133" t="s">
-        <v>613</v>
-      </c>
-      <c r="F88" t="s">
-        <v>791</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="1"/>
@@ -6021,22 +6031,22 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>791</v>
+      </c>
+      <c r="B89" t="s">
         <v>792</v>
       </c>
-      <c r="B89" t="s">
-        <v>793</v>
-      </c>
       <c r="C89" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D89" t="s">
         <v>613</v>
       </c>
-      <c r="D89" t="s">
-        <v>614</v>
-      </c>
       <c r="E89" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F89" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="1"/>
@@ -6045,22 +6055,22 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>793</v>
+      </c>
+      <c r="B90" t="s">
         <v>794</v>
       </c>
-      <c r="B90" t="s">
-        <v>795</v>
-      </c>
       <c r="C90" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D90" t="s">
         <v>613</v>
       </c>
-      <c r="D90" t="s">
-        <v>614</v>
-      </c>
       <c r="E90" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F90" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="1"/>
@@ -6069,22 +6079,22 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>795</v>
+      </c>
+      <c r="B91" t="s">
         <v>796</v>
       </c>
-      <c r="B91" t="s">
-        <v>797</v>
-      </c>
       <c r="C91" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D91" t="s">
         <v>613</v>
       </c>
-      <c r="D91" t="s">
-        <v>614</v>
-      </c>
       <c r="E91" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F91" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="1"/>
@@ -6093,22 +6103,22 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>797</v>
+      </c>
+      <c r="B92" t="s">
         <v>798</v>
       </c>
-      <c r="B92" t="s">
-        <v>799</v>
-      </c>
       <c r="C92" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D92" t="s">
         <v>613</v>
       </c>
-      <c r="D92" t="s">
-        <v>614</v>
-      </c>
       <c r="E92" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F92" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="1"/>
@@ -6117,22 +6127,22 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>799</v>
+      </c>
+      <c r="B93" t="s">
         <v>800</v>
       </c>
-      <c r="B93" t="s">
-        <v>801</v>
-      </c>
       <c r="C93" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D93" t="s">
         <v>613</v>
       </c>
-      <c r="D93" t="s">
-        <v>614</v>
-      </c>
       <c r="E93" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F93" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="1"/>
@@ -6141,22 +6151,22 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>801</v>
+      </c>
+      <c r="B94" t="s">
         <v>802</v>
       </c>
-      <c r="B94" t="s">
-        <v>803</v>
-      </c>
       <c r="C94" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D94" t="s">
         <v>613</v>
       </c>
-      <c r="D94" t="s">
-        <v>614</v>
-      </c>
       <c r="E94" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F94" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="1"/>
@@ -6165,22 +6175,22 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>803</v>
+      </c>
+      <c r="B95" t="s">
         <v>804</v>
       </c>
-      <c r="B95" t="s">
-        <v>805</v>
-      </c>
       <c r="C95" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D95" t="s">
         <v>613</v>
       </c>
-      <c r="D95" t="s">
-        <v>614</v>
-      </c>
       <c r="E95" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="1"/>
@@ -6189,22 +6199,22 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>805</v>
+      </c>
+      <c r="B96" t="s">
         <v>806</v>
       </c>
-      <c r="B96" t="s">
-        <v>807</v>
-      </c>
       <c r="C96" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D96" t="s">
         <v>613</v>
       </c>
-      <c r="D96" t="s">
-        <v>614</v>
-      </c>
       <c r="E96" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F96" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="1"/>
@@ -6213,22 +6223,22 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>807</v>
+      </c>
+      <c r="B97" t="s">
         <v>808</v>
       </c>
-      <c r="B97" t="s">
-        <v>809</v>
-      </c>
       <c r="C97" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D97" t="s">
         <v>613</v>
       </c>
-      <c r="D97" t="s">
-        <v>614</v>
-      </c>
       <c r="E97" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F97" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="1"/>
@@ -6237,22 +6247,22 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>809</v>
+      </c>
+      <c r="B98" t="s">
         <v>810</v>
       </c>
-      <c r="B98" t="s">
-        <v>811</v>
-      </c>
       <c r="C98" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D98" t="s">
         <v>613</v>
       </c>
-      <c r="D98" t="s">
-        <v>614</v>
-      </c>
       <c r="E98" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F98" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="1"/>
@@ -6261,22 +6271,22 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>811</v>
+      </c>
+      <c r="B99" t="s">
         <v>812</v>
       </c>
-      <c r="B99" t="s">
-        <v>813</v>
-      </c>
       <c r="C99" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D99" t="s">
         <v>613</v>
       </c>
-      <c r="D99" t="s">
-        <v>614</v>
-      </c>
       <c r="E99" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F99" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="1"/>
@@ -6285,22 +6295,22 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>813</v>
+      </c>
+      <c r="B100" t="s">
         <v>814</v>
       </c>
-      <c r="B100" t="s">
-        <v>815</v>
-      </c>
       <c r="C100" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D100" t="s">
         <v>613</v>
       </c>
-      <c r="D100" t="s">
-        <v>614</v>
-      </c>
       <c r="E100" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F100" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="1"/>
@@ -6309,22 +6319,22 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>815</v>
+      </c>
+      <c r="B101" t="s">
         <v>816</v>
       </c>
-      <c r="B101" t="s">
-        <v>817</v>
-      </c>
       <c r="C101" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D101" t="s">
         <v>613</v>
       </c>
-      <c r="D101" t="s">
-        <v>614</v>
-      </c>
       <c r="E101" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F101" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="1"/>
@@ -6333,22 +6343,22 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>817</v>
+      </c>
+      <c r="B102" t="s">
         <v>818</v>
       </c>
-      <c r="B102" t="s">
-        <v>819</v>
-      </c>
       <c r="C102" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D102" t="s">
         <v>613</v>
       </c>
-      <c r="D102" t="s">
-        <v>614</v>
-      </c>
       <c r="E102" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F102" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="1"/>
@@ -6357,22 +6367,22 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>819</v>
+      </c>
+      <c r="B103" t="s">
         <v>820</v>
       </c>
-      <c r="B103" t="s">
-        <v>821</v>
-      </c>
       <c r="C103" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D103" t="s">
         <v>613</v>
       </c>
-      <c r="D103" t="s">
-        <v>614</v>
-      </c>
       <c r="E103" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F103" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="1"/>
@@ -6381,22 +6391,22 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>821</v>
+      </c>
+      <c r="B104" t="s">
         <v>822</v>
       </c>
-      <c r="B104" t="s">
-        <v>823</v>
-      </c>
       <c r="C104" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D104" t="s">
         <v>613</v>
       </c>
-      <c r="D104" t="s">
-        <v>614</v>
-      </c>
       <c r="E104" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F104" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="1"/>
@@ -6405,22 +6415,22 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>823</v>
+      </c>
+      <c r="B105" t="s">
         <v>824</v>
       </c>
-      <c r="B105" t="s">
-        <v>825</v>
-      </c>
       <c r="C105" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D105" t="s">
         <v>613</v>
       </c>
-      <c r="D105" t="s">
-        <v>614</v>
-      </c>
       <c r="E105" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F105" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="1"/>
@@ -6429,22 +6439,22 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>825</v>
+      </c>
+      <c r="B106" t="s">
         <v>826</v>
       </c>
-      <c r="B106" t="s">
-        <v>827</v>
-      </c>
       <c r="C106" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D106" t="s">
         <v>613</v>
       </c>
-      <c r="D106" t="s">
-        <v>614</v>
-      </c>
       <c r="E106" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F106" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="1"/>
@@ -6453,22 +6463,22 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>827</v>
+      </c>
+      <c r="B107" t="s">
         <v>828</v>
       </c>
-      <c r="B107" t="s">
-        <v>829</v>
-      </c>
       <c r="C107" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D107" t="s">
         <v>613</v>
       </c>
-      <c r="D107" t="s">
-        <v>614</v>
-      </c>
       <c r="E107" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F107" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="1"/>
@@ -6477,22 +6487,22 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>829</v>
+      </c>
+      <c r="B108" t="s">
         <v>830</v>
       </c>
-      <c r="B108" t="s">
-        <v>831</v>
-      </c>
       <c r="C108" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D108" t="s">
         <v>613</v>
       </c>
-      <c r="D108" t="s">
-        <v>614</v>
-      </c>
       <c r="E108" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="1"/>
@@ -6501,22 +6511,22 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>831</v>
+      </c>
+      <c r="B109" t="s">
         <v>832</v>
       </c>
-      <c r="B109" t="s">
-        <v>833</v>
-      </c>
       <c r="C109" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D109" t="s">
         <v>613</v>
       </c>
-      <c r="D109" t="s">
-        <v>614</v>
-      </c>
       <c r="E109" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F109" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="1"/>
@@ -6525,22 +6535,22 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>833</v>
+      </c>
+      <c r="B110" t="s">
         <v>834</v>
       </c>
-      <c r="B110" t="s">
-        <v>835</v>
-      </c>
       <c r="C110" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="D110" t="s">
         <v>613</v>
       </c>
-      <c r="D110" t="s">
-        <v>614</v>
-      </c>
       <c r="E110" s="133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F110" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="1"/>
@@ -6912,7 +6922,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>11</v>
@@ -6944,7 +6954,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E121"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7329,7 +7339,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>11</v>
@@ -7347,542 +7357,542 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E73" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E76" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="78" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E78" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E80" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E81" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E85" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E90" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E95" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E96" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E97" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E98" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E99" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E101" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E102" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E103" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E104" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E105" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E106" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E107" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E108" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E109" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E110" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E111" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E112" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E113" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E118" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E119" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E121" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -8318,8 +8328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570AF19E-F26B-4187-B7FA-5CACB90F90DE}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8614,7 +8624,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>293</v>
+        <v>837</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>254</v>
@@ -8839,7 +8849,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>247</v>
@@ -9763,7 +9773,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>289</v>
@@ -9822,7 +9832,7 @@
         <v>289</v>
       </c>
       <c r="G17" s="117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H17" s="79" t="s">
         <v>11</v>
@@ -9904,7 +9914,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="125" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F20" s="63" t="s">
         <v>11</v>
@@ -59637,8 +59647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C933B41-8BB4-4030-B744-07CD539A0F97}">
   <dimension ref="A1:U137"/>
   <sheetViews>
-    <sheetView topLeftCell="K97" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59656,156 +59666,165 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B1" t="str">
         <f t="shared" ref="B1:B32" si="0">""""&amp;A1&amp;""""&amp;","</f>
         <v>"Delivered Water Use_Annual_Commercial_Unspecified",</v>
       </c>
       <c r="C1" t="s">
-        <v>478</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="D1" s="134"/>
       <c r="E1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F1" t="str">
         <f>""""&amp;E1&amp;""""&amp;","</f>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="M1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O1" t="s">
-        <v>446</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="P1" s="134"/>
       <c r="R1" s="2" t="s">
         <v>256</v>
       </c>
       <c r="U1" s="132" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" si="0"/>
         <v>"Delivered Water Use_Annual_DCII_Unspecified",</v>
       </c>
       <c r="C2" t="s">
-        <v>479</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="D2" s="134"/>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F65" si="1">""""&amp;E2&amp;""""&amp;","</f>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="M2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O2" t="s">
-        <v>483</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="P2" s="134"/>
       <c r="R2" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="U2" s="132" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
         <v>"Delivered Water Use_Annual_Domestic_Unspecified",</v>
       </c>
       <c r="C3" t="s">
-        <v>480</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="D3" s="134"/>
       <c r="E3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="1"/>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="M3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O3" t="s">
-        <v>484</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="P3" s="134"/>
       <c r="R3" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="U3" s="132" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>"Delivered Water Use_Annual_Industrial_Unspecified",</v>
       </c>
       <c r="C4" t="s">
-        <v>481</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="D4" s="134"/>
       <c r="E4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="I4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O4" t="s">
-        <v>485</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="P4" s="134"/>
       <c r="R4" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="U4" s="132" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>"Delivered Water Use_Annual_Institutional_Unspecified",</v>
       </c>
       <c r="C5" t="s">
-        <v>482</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="D5" s="134"/>
       <c r="E5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
@@ -59823,41 +59842,43 @@
         <v>0.64324828148665969</v>
       </c>
       <c r="M5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O5" t="s">
-        <v>447</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="P5" s="134"/>
       <c r="R5" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="U5" s="132" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>"Delivery_Annual_Industrial_Groundwater",</v>
       </c>
       <c r="C6" t="s">
-        <v>446</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="D6" s="134"/>
       <c r="E6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="I6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J6">
         <v>3062</v>
@@ -59867,193 +59888,205 @@
         <v>0.35675171851334031</v>
       </c>
       <c r="N6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O6" t="s">
-        <v>448</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="P6" s="134"/>
       <c r="R6" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="U6" s="132" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>"Delivery_Annual_Water Supplier_Groundwater",</v>
       </c>
       <c r="C7" t="s">
-        <v>483</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="D7" s="134"/>
       <c r="E7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="I7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J7">
         <f>8583</f>
         <v>8583</v>
       </c>
       <c r="N7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O7" t="s">
-        <v>449</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="P7" s="134"/>
       <c r="R7" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="U7" s="132" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>"Delivery_Annual_Water Supplier_Surface Water",</v>
       </c>
       <c r="C8" t="s">
-        <v>484</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="D8" s="134"/>
       <c r="E8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="N8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O8" t="s">
-        <v>450</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="P8" s="134"/>
       <c r="R8" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="U8" s="132" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>"Delivery_Annual_Water Supplier_Unspecified",</v>
       </c>
       <c r="C9" t="s">
-        <v>485</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="D9" s="134"/>
       <c r="E9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="N9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O9" t="s">
-        <v>451</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="P9" s="134"/>
       <c r="R9" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="U9" s="132" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>"Delivery_Monthly_Agricultural_Groundwater",</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="D10" s="134"/>
       <c r="E10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="N10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O10" t="s">
-        <v>486</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="P10" s="134"/>
       <c r="R10" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="U10" s="132" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>"Delivery_Monthly_Commercial_Groundwater",</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D11" s="134"/>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="N11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O11" t="s">
-        <v>487</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="P11" s="134"/>
       <c r="R11" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U11" s="132" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>"Delivery_Monthly_Domestic_Groundwater",</v>
       </c>
       <c r="C12" t="s">
-        <v>449</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="D12" s="134"/>
       <c r="E12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -60070,35 +60103,37 @@
         <v>0.97677395757132401</v>
       </c>
       <c r="N12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O12" t="s">
-        <v>488</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="P12" s="134"/>
       <c r="U12" s="132" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>"Delivery_Monthly_Domestic_Unspecified",</v>
       </c>
       <c r="C13" t="s">
-        <v>450</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="D13" s="134"/>
       <c r="E13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="I13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J13">
         <v>127</v>
@@ -60108,28 +60143,30 @@
         <v>2.3226042428675934E-2</v>
       </c>
       <c r="N13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O13" t="s">
-        <v>452</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="P13" s="134"/>
       <c r="U13" s="132" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>"Delivery_Monthly_Industrial_Groundwater",</v>
       </c>
       <c r="C14" t="s">
-        <v>451</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="D14" s="134"/>
       <c r="E14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -60140,2921 +60177,3168 @@
         <v>5468</v>
       </c>
       <c r="N14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O14" t="s">
-        <v>489</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="P14" s="134"/>
       <c r="U14" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>"Delivery_Monthly_Irrigation_Surface Water",</v>
       </c>
       <c r="C15" t="s">
-        <v>486</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="D15" s="134"/>
       <c r="E15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="N15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O15" t="s">
-        <v>453</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="P15" s="134"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>"Delivery_Monthly_Water Supplier_Groundwater",</v>
       </c>
       <c r="C16" t="s">
-        <v>487</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="D16" s="134"/>
       <c r="E16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="N16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+      <c r="P16" s="134"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>"Delivery_Monthly_Water Supplier_Surface Water",</v>
       </c>
       <c r="C17" t="s">
-        <v>488</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="D17" s="134"/>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
         <v>"Delivered Water Use",</v>
       </c>
       <c r="N17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O17" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+      <c r="P17" s="134"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Annual_Agricultural_Unspecified",</v>
       </c>
       <c r="C18" t="s">
-        <v>452</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="D18" s="134"/>
       <c r="E18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O18" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="P18" s="134"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Annual_Commercial_Surface Water",</v>
       </c>
       <c r="C19" t="s">
-        <v>489</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="D19" s="134"/>
       <c r="E19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O19" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="P19" s="134"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Annual_Geothermal_Groundwater",</v>
       </c>
       <c r="C20" t="s">
-        <v>453</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="D20" s="134"/>
       <c r="E20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O20" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="P20" s="134"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Annual_Industrial_Groundwater",</v>
       </c>
       <c r="C21" t="s">
-        <v>454</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="D21" s="134"/>
       <c r="E21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O21" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="P21" s="134"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Annual_Industrial_Surface Water",</v>
       </c>
       <c r="C22" t="s">
-        <v>490</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="D22" s="134"/>
       <c r="E22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O22" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="P22" s="134"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Annual_Power (Geothermal)_Groundwater",</v>
       </c>
       <c r="C23" t="s">
-        <v>568</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="D23" s="134"/>
       <c r="E23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O23" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="P23" s="134"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Monthly_Agricultural_Surface Water",</v>
       </c>
       <c r="C24" t="s">
-        <v>491</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="D24" s="134"/>
       <c r="E24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O24" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="P24" s="134"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Monthly_Agricultural_Unspecified",</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="D25" s="134"/>
       <c r="E25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O25" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="P25" s="134"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Monthly_Geothermal_Groundwater",</v>
       </c>
       <c r="C26" t="s">
-        <v>456</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="D26" s="134"/>
       <c r="E26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O26" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="P26" s="134"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Monthly_Industrial_Groundwater",</v>
       </c>
       <c r="C27" t="s">
-        <v>457</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="D27" s="134"/>
       <c r="E27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O27" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="P27" s="134"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Monthly_Industrial_Surface Water",</v>
       </c>
       <c r="C28" t="s">
-        <v>492</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="D28" s="134"/>
       <c r="E28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O28" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+      <c r="P28" s="134"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Monthly_Irrigation_Surface Water",</v>
       </c>
       <c r="C29" t="s">
-        <v>493</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D29" s="134"/>
       <c r="E29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O29" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="P29" s="134"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Monthly_Power (Geothermal)_Groundwater",</v>
       </c>
       <c r="C30" t="s">
-        <v>569</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="D30" s="134"/>
       <c r="E30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O30" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="P30" s="134"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Monthly_Power (Geothermal)_Unspecified",</v>
       </c>
       <c r="C31" t="s">
-        <v>570</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="D31" s="134"/>
       <c r="E31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O31" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+      <c r="P31" s="134"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>"Return_Monthly_Power (Hydro-Elec)_Surface Water",</v>
       </c>
       <c r="C32" t="s">
-        <v>571</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="D32" s="134"/>
       <c r="E32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O32" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+      <c r="P32" s="134"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ref="B33:B64" si="2">""""&amp;A33&amp;""""&amp;","</f>
         <v>"Return_Monthly_Water Supplier_Surface Water",</v>
       </c>
       <c r="C33" t="s">
-        <v>494</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="D33" s="134"/>
       <c r="E33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
         <v>"Return",</v>
       </c>
       <c r="N33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O33" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+      <c r="P33" s="134"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Annual_Commercial_Surface Water",</v>
       </c>
       <c r="C34" t="s">
-        <v>495</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="D34" s="134"/>
       <c r="E34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O34" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+      <c r="P34" s="134"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Annual_Commercial_Unspecified",</v>
       </c>
       <c r="C35" t="s">
-        <v>496</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="D35" s="134"/>
       <c r="E35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N35" t="s">
+        <v>412</v>
+      </c>
+      <c r="O35" t="s">
+        <v>500</v>
+      </c>
+      <c r="P35" s="134"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>413</v>
-      </c>
-      <c r="O35" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>414</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Annual_Domestic_Unspecified",</v>
       </c>
       <c r="C36" t="s">
-        <v>497</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="D36" s="134"/>
       <c r="E36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O36" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="P36" s="134"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Annual_Industrial_Groundwater",</v>
       </c>
       <c r="C37" t="s">
-        <v>498</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="D37" s="134"/>
       <c r="E37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O37" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+      <c r="P37" s="134"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Annual_Industrial_Unspecified",</v>
       </c>
       <c r="C38" t="s">
-        <v>499</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="D38" s="134"/>
       <c r="E38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O38" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="P38" s="134"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Annual_Irrigation_Groundwater",</v>
       </c>
       <c r="C39" t="s">
-        <v>500</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="D39" s="134"/>
       <c r="E39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O39" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+      <c r="P39" s="134"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Annual_Irrigation_Surface Water",</v>
       </c>
       <c r="C40" t="s">
-        <v>501</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="D40" s="134"/>
       <c r="E40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O40" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="P40" s="134"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Annual_Irrigation_Unspecified",</v>
       </c>
       <c r="C41" t="s">
-        <v>502</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="D41" s="134"/>
       <c r="E41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O41" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+      <c r="P41" s="134"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Annual_Mining_Groundwater",</v>
       </c>
       <c r="C42" t="s">
-        <v>503</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="D42" s="134"/>
       <c r="E42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O42" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="P42" s="134"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Annual_Water Supplier_Groundwater",</v>
       </c>
       <c r="C43" t="s">
-        <v>504</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="D43" s="134"/>
       <c r="E43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O43" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="P43" s="134"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Annual_Water Supplier_Surface Water",</v>
       </c>
       <c r="C44" t="s">
-        <v>505</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="D44" s="134"/>
       <c r="E44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O44" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="P44" s="134"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Annual_Water Supplier_Unspecified",</v>
       </c>
       <c r="C45" t="s">
-        <v>506</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="D45" s="134"/>
       <c r="E45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O45" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+      <c r="P45" s="134"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Agricultural_Unspecified",</v>
       </c>
       <c r="C46" t="s">
-        <v>507</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="D46" s="134"/>
       <c r="E46" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O46" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="P46" s="134"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Commercial_Surface Water",</v>
       </c>
       <c r="C47" t="s">
-        <v>508</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="D47" s="134"/>
       <c r="E47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O47" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+      <c r="P47" s="134"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Commercial_Unspecified",</v>
       </c>
       <c r="C48" t="s">
-        <v>509</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="D48" s="134"/>
       <c r="E48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O48" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="P48" s="134"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Domestic_Groundwater",</v>
       </c>
       <c r="C49" t="s">
-        <v>510</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="D49" s="134"/>
       <c r="E49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O49" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="P49" s="134"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Domestic_Unspecified",</v>
       </c>
       <c r="C50" t="s">
-        <v>511</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="D50" s="134"/>
       <c r="E50" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O50" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="P50" s="134"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Industrial_Groundwater",</v>
       </c>
       <c r="C51" t="s">
-        <v>512</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="D51" s="134"/>
       <c r="E51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O51" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+      <c r="P51" s="134"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Industrial_Unspecified",</v>
       </c>
       <c r="C52" t="s">
-        <v>513</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="D52" s="134"/>
       <c r="E52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O52" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="P52" s="134"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Irrigation_Groundwater",</v>
       </c>
       <c r="C53" t="s">
-        <v>514</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="D53" s="134"/>
       <c r="E53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O53" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="P53" s="134"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Irrigation_Surface Water",</v>
       </c>
       <c r="C54" t="s">
-        <v>515</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="D54" s="134"/>
       <c r="E54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O54" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="P54" s="134"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Irrigation_Unspecified",</v>
       </c>
       <c r="C55" t="s">
-        <v>516</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="D55" s="134"/>
       <c r="E55" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O55" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="P55" s="134"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Mining_Groundwater",</v>
       </c>
       <c r="C56" t="s">
-        <v>517</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D56" s="134"/>
       <c r="E56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O56" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+      <c r="P56" s="134"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Power (Fossil-Fuel)_Groundwater",</v>
       </c>
       <c r="C57" t="s">
-        <v>572</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="D57" s="134"/>
       <c r="E57" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N57" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O57" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="P57" s="134"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Water Supplier_Groundwater",</v>
       </c>
       <c r="C58" t="s">
-        <v>518</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="D58" s="134"/>
       <c r="E58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N58" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O58" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="P58" s="134"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Water Supplier_Surface Water",</v>
       </c>
       <c r="C59" t="s">
-        <v>519</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="D59" s="134"/>
       <c r="E59" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N59" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O59" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="P59" s="134"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer In_Monthly_Water Supplier_Unspecified",</v>
       </c>
       <c r="C60" t="s">
-        <v>520</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="D60" s="134"/>
       <c r="E60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer In",</v>
       </c>
       <c r="N60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O60" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+      <c r="P60" s="134"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer Out_Annual_Agricultural_Surface Water",</v>
       </c>
       <c r="C61" t="s">
-        <v>521</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="D61" s="134"/>
       <c r="E61" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O61" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="P61" s="134"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer Out_Annual_Agricultural_Unspecified",</v>
       </c>
       <c r="C62" t="s">
-        <v>522</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D62" s="134"/>
       <c r="E62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N62" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O62" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="P62" s="134"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer Out_Annual_Commercial_Surface Water",</v>
       </c>
       <c r="C63" t="s">
-        <v>523</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="D63" s="134"/>
       <c r="E63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N63" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O63" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+      <c r="P63" s="134"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="2"/>
         <v>"Transfer Out_Annual_Commercial_Unspecified",</v>
       </c>
       <c r="C64" t="s">
-        <v>524</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="D64" s="134"/>
       <c r="E64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N64" t="s">
+        <v>424</v>
+      </c>
+      <c r="O64" t="s">
+        <v>528</v>
+      </c>
+      <c r="P64" s="134"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>425</v>
-      </c>
-      <c r="O64" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>426</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" ref="B65:B96" si="3">""""&amp;A65&amp;""""&amp;","</f>
         <v>"Transfer Out_Annual_Domestic_Unspecified",</v>
       </c>
       <c r="C65" t="s">
-        <v>525</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="D65" s="134"/>
       <c r="E65" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="1"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O65" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+      <c r="P65" s="134"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Annual_Industrial_Groundwater",</v>
       </c>
       <c r="C66" t="s">
-        <v>526</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="D66" s="134"/>
       <c r="E66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" ref="F66:F129" si="4">""""&amp;E66&amp;""""&amp;","</f>
         <v>"Transfer Out",</v>
       </c>
       <c r="N66" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O66" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="P66" s="134"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Annual_Industrial_Unspecified",</v>
       </c>
       <c r="C67" t="s">
-        <v>527</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="D67" s="134"/>
       <c r="E67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O67" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="P67" s="134"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Annual_Irrigation_Groundwater",</v>
       </c>
       <c r="C68" t="s">
-        <v>528</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="D68" s="134"/>
       <c r="E68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N68" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O68" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="P68" s="134"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Annual_Irrigation_Surface Water",</v>
       </c>
       <c r="C69" t="s">
-        <v>529</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="D69" s="134"/>
       <c r="E69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O69" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="P69" s="134"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Annual_Irrigation_Unspecified",</v>
       </c>
       <c r="C70" t="s">
-        <v>530</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="D70" s="134"/>
       <c r="E70" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O70" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+      <c r="P70" s="134"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Annual_Power (Fossil-Fuel)_Groundwater",</v>
       </c>
       <c r="C71" t="s">
-        <v>573</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="D71" s="134"/>
       <c r="E71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N71" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O71" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+      <c r="P71" s="134"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Annual_Water Supplier_Groundwater",</v>
       </c>
       <c r="C72" t="s">
-        <v>531</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="D72" s="134"/>
       <c r="E72" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N72" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O72" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="P72" s="134"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Annual_Water Supplier_Surface Water",</v>
       </c>
       <c r="C73" t="s">
-        <v>532</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="D73" s="134"/>
       <c r="E73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+      <c r="P73" s="134"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Annual_Water Supplier_Unspecified",</v>
       </c>
       <c r="C74" t="s">
-        <v>533</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="D74" s="134"/>
       <c r="E74" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O74" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+      <c r="P74" s="134"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Agricultural_Surface Water",</v>
       </c>
       <c r="C75" t="s">
-        <v>534</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="D75" s="134"/>
       <c r="E75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O75" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+      <c r="P75" s="134"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Commercial_Groundwater",</v>
       </c>
       <c r="C76" t="s">
-        <v>535</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="D76" s="134"/>
       <c r="E76" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O76" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+      <c r="P76" s="134"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Commercial_Surface Water",</v>
       </c>
       <c r="C77" t="s">
-        <v>536</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="D77" s="134"/>
       <c r="E77" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O77" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+      <c r="P77" s="134"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Commercial_Unspecified",</v>
       </c>
       <c r="C78" t="s">
-        <v>537</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="D78" s="134"/>
       <c r="E78" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O78" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="P78" s="134"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Domestic_Groundwater",</v>
       </c>
       <c r="C79" t="s">
-        <v>538</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="D79" s="134"/>
       <c r="E79" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O79" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+      <c r="P79" s="134"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Domestic_Unspecified",</v>
       </c>
       <c r="C80" t="s">
-        <v>539</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="D80" s="134"/>
       <c r="E80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N80" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O80" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="P80" s="134"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Industrial_Groundwater",</v>
       </c>
       <c r="C81" t="s">
-        <v>540</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="D81" s="134"/>
       <c r="E81" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N81" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O81" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="P81" s="134"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Industrial_Surface Water",</v>
       </c>
       <c r="C82" t="s">
-        <v>541</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="D82" s="134"/>
       <c r="E82" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O82" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+      <c r="P82" s="134"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Industrial_Unspecified",</v>
       </c>
       <c r="C83" t="s">
-        <v>542</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="D83" s="134"/>
       <c r="E83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O83" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="P83" s="134"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Irrigation_Groundwater",</v>
       </c>
       <c r="C84" t="s">
-        <v>543</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="D84" s="134"/>
       <c r="E84" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N84" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O84" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+      <c r="P84" s="134"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Irrigation_Surface Water",</v>
       </c>
       <c r="C85" t="s">
-        <v>544</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="D85" s="134"/>
       <c r="E85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N85" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O85" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+      <c r="P85" s="134"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Irrigation_Unspecified",</v>
       </c>
       <c r="C86" t="s">
-        <v>545</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="D86" s="134"/>
       <c r="E86" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O86" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="P86" s="134"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Power (Fossil-Fuel)_Groundwater",</v>
       </c>
       <c r="C87" t="s">
-        <v>574</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="D87" s="134"/>
       <c r="E87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N87" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O87" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="P87" s="134"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Sewage Treatment_Unspecified",</v>
       </c>
       <c r="C88" t="s">
-        <v>546</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="D88" s="134"/>
       <c r="E88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N88" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O88" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="P88" s="134"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Water Supplier_Groundwater",</v>
       </c>
       <c r="C89" t="s">
-        <v>547</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="D89" s="134"/>
       <c r="E89" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N89" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O89" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="P89" s="134"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Water Supplier_Surface Water",</v>
       </c>
       <c r="C90" t="s">
-        <v>548</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="D90" s="134"/>
       <c r="E90" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N90" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O90" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+      <c r="P90" s="134"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="3"/>
         <v>"Transfer Out_Monthly_Water Supplier_Unspecified",</v>
       </c>
       <c r="C91" t="s">
-        <v>549</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="D91" s="134"/>
       <c r="E91" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="4"/>
         <v>"Transfer Out",</v>
       </c>
       <c r="N91" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O91" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="P91" s="134"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="3"/>
         <v>"Withdrawal_Annual_Agricultural_Groundwater",</v>
       </c>
       <c r="C92" t="s">
-        <v>458</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="D92" s="134"/>
       <c r="E92" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N92" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O92" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="P92" s="134"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="3"/>
         <v>"Withdrawal_Annual_Agricultural_Surface Water",</v>
       </c>
       <c r="C93" t="s">
-        <v>550</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="D93" s="134"/>
       <c r="E93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O93" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+      <c r="P93" s="134"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="3"/>
         <v>"Withdrawal_Annual_Agricultural_Unspecified",</v>
       </c>
       <c r="C94" t="s">
-        <v>459</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="D94" s="134"/>
       <c r="E94" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N94" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O94" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+      <c r="P94" s="134"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="3"/>
         <v>"Withdrawal_Annual_Commercial_Groundwater",</v>
       </c>
       <c r="C95" t="s">
-        <v>460</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="D95" s="134"/>
       <c r="E95" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N95" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O95" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="P95" s="134"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="3"/>
         <v>"Withdrawal_Annual_Commercial_Surface Water",</v>
       </c>
       <c r="C96" t="s">
-        <v>551</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="D96" s="134"/>
       <c r="E96" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N96" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O96" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+      <c r="P96" s="134"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" ref="B97:B128" si="5">""""&amp;A97&amp;""""&amp;","</f>
         <v>"Withdrawal_Annual_Domestic_Groundwater",</v>
       </c>
       <c r="C97" t="s">
-        <v>461</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="D97" s="134"/>
       <c r="E97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N97" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O97" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="P97" s="134"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Domestic_Surface Water",</v>
       </c>
       <c r="C98" t="s">
-        <v>552</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="D98" s="134"/>
       <c r="E98" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N98" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O98" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+      <c r="P98" s="134"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Geothermal_Groundwater",</v>
       </c>
       <c r="C99" t="s">
-        <v>462</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="D99" s="134"/>
       <c r="E99" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N99" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O99" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+      <c r="P99" s="134"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Industrial_Groundwater",</v>
       </c>
       <c r="C100" t="s">
-        <v>463</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="D100" s="134"/>
       <c r="E100" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O100" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="P100" s="134"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Industrial_Surface Water",</v>
       </c>
       <c r="C101" t="s">
-        <v>553</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D101" s="134"/>
       <c r="E101" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N101" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O101" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+      <c r="P101" s="134"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Irrigation_Groundwater",</v>
       </c>
       <c r="C102" t="s">
-        <v>464</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="D102" s="134"/>
       <c r="E102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N102" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O102" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+      <c r="P102" s="134"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Irrigation_Surface Water",</v>
       </c>
       <c r="C103" t="s">
-        <v>554</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="D103" s="134"/>
       <c r="E103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N103" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O103" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+      <c r="P103" s="134"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Irrigation_Unspecified",</v>
       </c>
       <c r="C104" t="s">
-        <v>465</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="D104" s="134"/>
       <c r="E104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N104" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O104" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="P104" s="134"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Mining_Groundwater",</v>
       </c>
       <c r="C105" t="s">
-        <v>466</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="D105" s="134"/>
       <c r="E105" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N105" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O105" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+      <c r="P105" s="134"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Mining_Surface Water",</v>
       </c>
       <c r="C106" t="s">
-        <v>555</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D106" s="134"/>
       <c r="E106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N106" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O106" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+      <c r="P106" s="134"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Mining_Unspecified",</v>
       </c>
       <c r="C107" t="s">
-        <v>467</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="D107" s="134"/>
       <c r="E107" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N107" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O107" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+      <c r="P107" s="134"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Power (Fossil-Fuel)_Groundwater",</v>
       </c>
       <c r="C108" t="s">
-        <v>575</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="D108" s="134"/>
       <c r="E108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N108" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O108" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="P108" s="134"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Power (Fossil-Fuel)_Surface Water",</v>
       </c>
       <c r="C109" t="s">
-        <v>576</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="D109" s="134"/>
       <c r="E109" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
       <c r="N109" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O109" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="P109" s="134"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Power (Geothermal)_Groundwater",</v>
       </c>
       <c r="C110" t="s">
-        <v>577</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="D110" s="134"/>
       <c r="E110" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P110" s="134"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Power (Geothermal)_Surface Water",</v>
       </c>
       <c r="C111" t="s">
-        <v>578</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="D111" s="134"/>
       <c r="E111" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P111" s="134"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Water Supplier_Groundwater",</v>
       </c>
       <c r="C112" t="s">
-        <v>556</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="D112" s="134"/>
       <c r="E112" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P112" s="134"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Water Supplier_Surface Water",</v>
       </c>
       <c r="C113" t="s">
-        <v>557</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="D113" s="134"/>
       <c r="E113" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P113" s="134"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Annual_Water Supplier_Unspecified",</v>
       </c>
       <c r="C114" t="s">
-        <v>558</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="D114" s="134"/>
       <c r="E114" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P114" s="134"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Agricultural_Groundwater",</v>
       </c>
       <c r="C115" t="s">
-        <v>468</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="D115" s="134"/>
       <c r="E115" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P115" s="134"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Agricultural_Surface Water",</v>
       </c>
       <c r="C116" t="s">
-        <v>559</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="D116" s="134"/>
       <c r="E116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P116" s="134"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Agricultural_Unspecified",</v>
       </c>
       <c r="C117" t="s">
-        <v>469</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="D117" s="134"/>
       <c r="E117" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P117" s="134"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Commercial_Groundwater",</v>
       </c>
       <c r="C118" t="s">
-        <v>470</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="D118" s="134"/>
       <c r="E118" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P118" s="134"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Commercial_Surface Water",</v>
       </c>
       <c r="C119" t="s">
-        <v>560</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="D119" s="134"/>
       <c r="E119" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P119" s="134"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Domestic_Groundwater",</v>
       </c>
       <c r="C120" t="s">
-        <v>471</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="D120" s="134"/>
       <c r="E120" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P120" s="134"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Domestic_Surface Water",</v>
       </c>
       <c r="C121" t="s">
-        <v>561</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="D121" s="134"/>
       <c r="E121" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P121" s="134"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Geothermal_Groundwater",</v>
       </c>
       <c r="C122" t="s">
-        <v>472</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="D122" s="134"/>
       <c r="E122" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P122" s="134"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Industrial_Groundwater",</v>
       </c>
       <c r="C123" t="s">
-        <v>473</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="D123" s="134"/>
       <c r="E123" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P123" s="134"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Industrial_Surface Water",</v>
       </c>
       <c r="C124" t="s">
-        <v>562</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="D124" s="134"/>
       <c r="E124" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P124" s="134"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Industrial_Unspecified",</v>
       </c>
       <c r="C125" t="s">
-        <v>474</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="D125" s="134"/>
       <c r="E125" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P125" s="134"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Irrigation_Groundwater",</v>
       </c>
       <c r="C126" t="s">
-        <v>475</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="D126" s="134"/>
       <c r="E126" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P126" s="134"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Irrigation_Surface Water",</v>
       </c>
       <c r="C127" t="s">
-        <v>563</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="D127" s="134"/>
       <c r="E127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P127" s="134"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="5"/>
         <v>"Withdrawal_Monthly_Irrigation_Unspecified",</v>
       </c>
       <c r="C128" t="s">
-        <v>476</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="D128" s="134"/>
       <c r="E128" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P128" s="134"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" ref="B129:B137" si="6">""""&amp;A129&amp;""""&amp;","</f>
         <v>"Withdrawal_Monthly_Mining_Groundwater",</v>
       </c>
       <c r="C129" t="s">
-        <v>477</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="D129" s="134"/>
       <c r="E129" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="4"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P129" s="134"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" si="6"/>
         <v>"Withdrawal_Monthly_Mining_Surface Water",</v>
       </c>
       <c r="C130" t="s">
-        <v>564</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="D130" s="134"/>
       <c r="E130" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" ref="F130:F137" si="7">""""&amp;E130&amp;""""&amp;","</f>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P130" s="134"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="6"/>
         <v>"Withdrawal_Monthly_Power (Fossil-Fuel)_Groundwater",</v>
       </c>
       <c r="C131" t="s">
-        <v>579</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="D131" s="134"/>
       <c r="E131" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="7"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P131" s="134"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="6"/>
         <v>"Withdrawal_Monthly_Power (Fossil-Fuel)_Surface Water",</v>
       </c>
       <c r="C132" t="s">
-        <v>580</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="D132" s="134"/>
       <c r="E132" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="7"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P132" s="134"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="6"/>
         <v>"Withdrawal_Monthly_Power (Geothermal)_Groundwater",</v>
       </c>
       <c r="C133" t="s">
-        <v>581</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="D133" s="134"/>
       <c r="E133" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="7"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P133" s="134"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="6"/>
         <v>"Withdrawal_Monthly_Power (Geothermal)_Surface Water",</v>
       </c>
       <c r="C134" t="s">
-        <v>582</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="D134" s="134"/>
       <c r="E134" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="7"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P134" s="134"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="6"/>
         <v>"Withdrawal_Monthly_Water Supplier_Groundwater",</v>
       </c>
       <c r="C135" t="s">
-        <v>565</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="D135" s="134"/>
       <c r="E135" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="7"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P135" s="134"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="6"/>
         <v>"Withdrawal_Monthly_Water Supplier_Surface Water",</v>
       </c>
       <c r="C136" t="s">
-        <v>566</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="D136" s="134"/>
       <c r="E136" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="7"/>
         <v>"Withdrawal",</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P136" s="134"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="6"/>
         <v>"Withdrawal_Monthly_Water Supplier_Unspecified",</v>
       </c>
       <c r="C137" t="s">
-        <v>567</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="D137" s="134"/>
       <c r="E137" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="7"/>
         <v>"Withdrawal",</v>
       </c>
+      <c r="P137" s="134"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A137">
